--- a/public/example/tgt2範例檔案.xlsx
+++ b/public/example/tgt2範例檔案.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="3960" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>sn</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,6 +65,10 @@
   </si>
   <si>
     <t>last_four</t>
+  </si>
+  <si>
+    <t>p4(後來新增所以排在最後面)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -413,15 +417,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="14" max="14" width="28" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -460,6 +467,9 @@
       </c>
       <c r="M1" t="s">
         <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/public/example/tgt2範例檔案.xlsx
+++ b/public/example/tgt2範例檔案.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="4890" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
     <t>last_four</t>
   </si>
   <si>
-    <t>p4(後來新增所以排在最後面)</t>
+    <t>p4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -420,12 +420,12 @@
   <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="14" max="14" width="28" customWidth="1"/>
+    <col min="14" max="14" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
